--- a/config_debug/fish_am_yutu_random_2.xlsx
+++ b/config_debug/fish_am_yutu_random_2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,10 +309,6 @@
   </si>
   <si>
     <t>52,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,7,8,9,10,11,26,27,65,66</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -340,7 +336,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>28,29,30,31,32,33,64,</t>
+    <t>26,27,28,29,30,31,32,33,64,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,7,8,9,10,11,65,66</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1058,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1116,7 +1116,7 @@
         <v>250</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1136,7 +1136,7 @@
         <v>300</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1156,7 +1156,7 @@
         <v>350</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1176,7 +1176,7 @@
         <v>450</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1196,7 +1196,7 @@
         <v>600</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1207,16 +1207,16 @@
         <v>60</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="9">
+        <v>50</v>
+      </c>
+      <c r="E7" s="9">
+        <v>80</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="D7" s="9">
-        <v>30</v>
-      </c>
-      <c r="E7" s="9">
-        <v>50</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1227,16 +1227,16 @@
         <v>61</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E8" s="9">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1244,19 +1244,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D9" s="9">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E9" s="9">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1264,19 +1267,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D10" s="9">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="E10" s="9">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="H10" s="9">
         <v>1</v>
@@ -1287,19 +1290,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D11" s="9">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="E11" s="9">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="H11" s="9">
         <v>1</v>
@@ -1310,19 +1313,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D12" s="9">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="E12" s="9">
-        <v>3200</v>
+        <v>4200</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
@@ -1333,46 +1336,27 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D13" s="9">
-        <v>3800</v>
+        <v>4800</v>
       </c>
       <c r="E13" s="9">
-        <v>4200</v>
+        <v>5200</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="H13" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="9">
-        <v>4800</v>
-      </c>
-      <c r="E14" s="9">
-        <v>5200</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D18" s="9"/>
@@ -1386,9 +1370,9 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D24" s="9"/>
@@ -1398,13 +1382,9 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1849,7 +1829,7 @@
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1857,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>49</v>
@@ -1874,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>49</v>
@@ -1891,10 +1871,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>18</v>
@@ -1908,7 +1888,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>49</v>
@@ -1925,10 +1905,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>14</v>

--- a/config_debug/fish_am_yutu_random_2.xlsx
+++ b/config_debug/fish_am_yutu_random_2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="86">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,14 +366,6 @@
   </si>
   <si>
     <t>end_time|结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95,96,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1107,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1431,10 +1423,10 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="18">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="J14" s="18">
-        <v>1618847999</v>
+        <v>1620662399</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1459,10 +1451,10 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="18">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="J15" s="18">
-        <v>1618847999</v>
+        <v>1620662399</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1487,10 +1479,10 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="18">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="J16" s="18">
-        <v>1618847999</v>
+        <v>1620662399</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1515,10 +1507,10 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="18">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="J17" s="18">
-        <v>1618847999</v>
+        <v>1620662399</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1543,33 +1535,15 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="18">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="J18" s="18">
-        <v>1618847999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="9">
-        <v>2000</v>
-      </c>
-      <c r="E19" s="9">
-        <v>4000</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+        <v>1620662399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D20" s="9"/>

--- a/config_debug/fish_am_yutu_random_2.xlsx
+++ b/config_debug/fish_am_yutu_random_2.xlsx
@@ -248,12 +248,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,10 +276,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -296,11 +294,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,27 +316,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -353,14 +348,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,35 +377,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,10 +394,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,7 +411,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,187 +451,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,6 +669,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -694,39 +689,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,157 +733,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -953,11 +939,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1561,7 +1547,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I26" sqref="H26:I26"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1569,8 +1555,7 @@
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="28.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="93.375" customWidth="1"/>
-    <col min="7" max="7" width="41.25" customWidth="1"/>
-    <col min="8" max="8" width="41.25" customWidth="1"/>
+    <col min="7" max="8" width="41.25" customWidth="1"/>
     <col min="9" max="9" width="21.75" customWidth="1"/>
     <col min="10" max="10" width="17.75" customWidth="1"/>
   </cols>
@@ -1884,10 +1869,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J14" s="5">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:10">
@@ -1912,10 +1897,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J15" s="5">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:10">
@@ -1940,10 +1925,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J16" s="5">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:10">
@@ -1968,10 +1953,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J17" s="5">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:10">
@@ -1996,10 +1981,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J18" s="5">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish_am_yutu_random_2.xlsx
+++ b/config_debug/fish_am_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="6" activeTab="13"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -248,9 +248,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -281,6 +281,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -295,22 +310,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,31 +331,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,23 +346,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -393,19 +369,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,8 +401,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,187 +451,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,11 +660,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,16 +709,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,41 +749,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,10 +764,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -776,133 +776,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1869,10 +1869,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J14" s="5">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:10">
@@ -1897,10 +1897,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J15" s="5">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:10">
@@ -1925,10 +1925,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J16" s="5">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:10">
@@ -1953,10 +1953,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J17" s="5">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:10">
@@ -1981,10 +1981,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J18" s="5">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish_am_yutu_random_2.xlsx
+++ b/config_debug/fish_am_yutu_random_2.xlsx
@@ -248,9 +248,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -276,20 +276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,21 +290,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,21 +306,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,24 +321,51 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,32 +380,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,6 +415,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -451,49 +451,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,13 +577,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,103 +607,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +679,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,8 +728,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,52 +757,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -776,138 +776,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1547,7 +1547,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="I14" sqref="I14:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1869,10 +1869,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J14" s="5">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:10">
@@ -1897,10 +1897,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J15" s="5">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:10">
@@ -1925,10 +1925,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J16" s="5">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:10">
@@ -1953,10 +1953,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J17" s="5">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:10">
@@ -1981,10 +1981,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J18" s="5">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish_am_yutu_random_2.xlsx
+++ b/config_debug/fish_am_yutu_random_2.xlsx
@@ -251,15 +251,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -284,22 +291,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,32 +325,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,16 +341,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,6 +378,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -389,15 +394,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,25 +420,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -454,187 +461,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,21 +671,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -689,44 +681,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,17 +714,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -779,140 +786,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -923,7 +930,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -935,10 +945,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -949,7 +959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1284,28 +1294,28 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="67.5" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1351,10 +1361,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1400,10 +1410,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1457,10 +1467,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1506,10 +1516,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1549,8 +1559,8 @@
   <sheetPr/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1872,10 +1882,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J14" s="5">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:10">
@@ -1900,10 +1910,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J15" s="5">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:10">
@@ -1928,10 +1938,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J16" s="5">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:10">
@@ -1956,10 +1966,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J17" s="5">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:10">
@@ -1983,10 +1993,10 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="5">
+      <c r="I18" s="6">
         <v>1623167999</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="6">
         <v>1623254399</v>
       </c>
     </row>
@@ -2012,10 +2022,10 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="5">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J19" s="5">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
   </sheetData>
@@ -2036,207 +2046,207 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="13"/>
-    <col min="2" max="2" width="13.125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="18" style="15" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="13" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="13.125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="18" style="16" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="14" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <v>15</v>
       </c>
-      <c r="D2" s="14">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14">
+      <c r="D2" s="15">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15">
         <v>5</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15">
+      <c r="F2" s="15"/>
+      <c r="G2" s="16">
         <v>1569886200</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="16">
         <v>1570456800</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <v>16</v>
       </c>
-      <c r="D3" s="15">
-        <v>2</v>
-      </c>
-      <c r="E3" s="14">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="15">
+      <c r="D3" s="16">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="16">
         <v>1569886200</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="16">
         <v>1570456800</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="13">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <v>17</v>
       </c>
-      <c r="D4" s="15">
-        <v>2</v>
-      </c>
-      <c r="E4" s="15">
-        <v>1</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="D4" s="16">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15">
         <v>1200</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="15">
         <v>1559186972</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="16">
         <v>2555555555</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="13">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>21</v>
       </c>
-      <c r="D5" s="14">
-        <v>2</v>
-      </c>
-      <c r="E5" s="14">
-        <v>2</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15">
+      <c r="D5" s="15">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16">
         <v>1569886200</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="16">
         <v>2555555555</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="13">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>22</v>
       </c>
-      <c r="D6" s="14">
-        <v>2</v>
-      </c>
-      <c r="E6" s="14">
-        <v>2</v>
-      </c>
-      <c r="G6" s="15">
+      <c r="D6" s="15">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2</v>
+      </c>
+      <c r="G6" s="16">
         <v>1569886200</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="16">
         <v>2555555555</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="13">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>23</v>
       </c>
-      <c r="D7" s="14">
-        <v>2</v>
-      </c>
-      <c r="E7" s="14">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15">
+      <c r="D7" s="15">
+        <v>2</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
         <v>1569886200</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="16">
         <v>2555555555</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="13">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>24</v>
       </c>
-      <c r="D8" s="14">
-        <v>2</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1</v>
-      </c>
-      <c r="G8" s="15">
+      <c r="D8" s="15">
+        <v>2</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
         <v>1569886200</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="16">
         <v>2555555555</v>
       </c>
     </row>
@@ -2258,14 +2268,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="27" spans="1:3">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" ht="27" spans="1:3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2297,17 +2307,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2441,112 +2451,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="7"/>
-    <col min="2" max="2" width="21.25" style="9" customWidth="1"/>
-    <col min="3" max="4" width="17.875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="10.75" style="7"/>
+    <col min="1" max="1" width="10.75" style="8"/>
+    <col min="2" max="2" width="21.25" style="10" customWidth="1"/>
+    <col min="3" max="4" width="17.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="10.75" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="55.5" customHeight="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" ht="55.5" customHeight="1" spans="1:5">
+      <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" spans="1:5">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="3" s="9" customFormat="1" spans="1:5">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A4" s="8">
+    <row r="4" s="9" customFormat="1" ht="17.1" customHeight="1" spans="1:5">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" spans="1:5">
-      <c r="A5" s="8">
+    <row r="5" s="9" customFormat="1" spans="1:5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" spans="1:5">
-      <c r="A6" s="8">
+    <row r="6" s="9" customFormat="1" spans="1:5">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2560,37 +2570,37 @@
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="12"/>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="12"/>
+      <c r="B11" s="13"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="12"/>
+      <c r="B12" s="13"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="12"/>
+      <c r="B14" s="13"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="12"/>
+      <c r="B15" s="13"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="12"/>
+      <c r="B16" s="13"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="12"/>
+      <c r="B17" s="13"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="12"/>
+      <c r="B18" s="13"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="12"/>
+      <c r="B19" s="13"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="12"/>
+      <c r="B20" s="13"/>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1"/>
@@ -2661,17 +2671,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2819,62 +2829,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="10.75" style="7"/>
+    <col min="1" max="16384" width="10.75" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
         <v>30</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>40</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
         <v>25</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>30</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>10</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>25</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>3</v>
       </c>
     </row>
@@ -2896,10 +2906,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2961,10 +2971,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>41</v>
       </c>
     </row>

--- a/config_debug/fish_am_yutu_random_2.xlsx
+++ b/config_debug/fish_am_yutu_random_2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
   <si>
     <t>no</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>137,</t>
+  </si>
+  <si>
+    <t>鱼粮boss</t>
+  </si>
+  <si>
+    <t>138,</t>
   </si>
 </sst>
 </file>
@@ -251,10 +257,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -285,6 +291,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -293,16 +325,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,19 +347,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -344,30 +355,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,30 +370,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -421,7 +412,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,6 +432,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -461,25 +467,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +575,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,145 +647,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,17 +676,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,46 +715,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,17 +753,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -786,138 +792,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1557,10 +1563,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1882,10 +1888,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J14" s="5">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:10">
@@ -1910,10 +1916,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J15" s="5">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:10">
@@ -1938,10 +1944,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J16" s="5">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:10">
@@ -1966,10 +1972,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J17" s="5">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:10">
@@ -1994,10 +2000,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J18" s="5">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
@@ -2026,6 +2032,32 @@
       </c>
       <c r="J19" s="6">
         <v>1623254399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20">
+        <v>3000</v>
+      </c>
+      <c r="E20">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1625529600</v>
+      </c>
+      <c r="J20" s="5">
+        <v>2572214400</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish_am_yutu_random_2.xlsx
+++ b/config_debug/fish_am_yutu_random_2.xlsx
@@ -258,11 +258,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +273,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -305,26 +312,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -333,19 +320,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -362,6 +347,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -369,9 +385,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,56 +440,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,25 +474,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,157 +648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,30 +679,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,32 +707,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,17 +741,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -792,140 +799,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -939,7 +946,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -951,10 +961,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -965,7 +975,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1300,28 +1310,28 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="67.5" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1367,10 +1377,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1416,10 +1426,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1473,10 +1483,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1522,10 +1532,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1565,8 +1575,8 @@
   <sheetPr/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2053,11 +2063,11 @@
       <c r="F20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I20" s="6">
-        <v>1623167999</v>
-      </c>
-      <c r="J20" s="6">
-        <v>1623254399</v>
+      <c r="I20" s="7">
+        <v>1626134400</v>
+      </c>
+      <c r="J20" s="7">
+        <v>2572819200</v>
       </c>
     </row>
   </sheetData>
@@ -2078,207 +2088,207 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="14"/>
-    <col min="2" max="2" width="13.125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="18" style="16" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="14" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="13.125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="18" style="17" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="15" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="16">
         <v>15</v>
       </c>
-      <c r="D2" s="15">
-        <v>2</v>
-      </c>
-      <c r="E2" s="15">
+      <c r="D2" s="16">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16">
         <v>5</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16">
+      <c r="F2" s="16"/>
+      <c r="G2" s="17">
         <v>1569886200</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="17">
         <v>1570456800</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="16">
         <v>16</v>
       </c>
-      <c r="D3" s="16">
-        <v>2</v>
-      </c>
-      <c r="E3" s="15">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="16">
+      <c r="D3" s="17">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="17">
         <v>1569886200</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="17">
         <v>1570456800</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="14">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="16">
         <v>17</v>
       </c>
-      <c r="D4" s="16">
-        <v>2</v>
-      </c>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="D4" s="17">
+        <v>2</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16">
         <v>1200</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="16">
         <v>1559186972</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="17">
         <v>2555555555</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="14">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>21</v>
       </c>
-      <c r="D5" s="15">
-        <v>2</v>
-      </c>
-      <c r="E5" s="15">
-        <v>2</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16">
+      <c r="D5" s="16">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17">
         <v>1569886200</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="17">
         <v>2555555555</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="14">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>22</v>
       </c>
-      <c r="D6" s="15">
-        <v>2</v>
-      </c>
-      <c r="E6" s="15">
-        <v>2</v>
-      </c>
-      <c r="G6" s="16">
+      <c r="D6" s="16">
+        <v>2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+      <c r="G6" s="17">
         <v>1569886200</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="17">
         <v>2555555555</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="14">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>23</v>
       </c>
-      <c r="D7" s="15">
-        <v>2</v>
-      </c>
-      <c r="E7" s="15">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16">
+      <c r="D7" s="16">
+        <v>2</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17">
         <v>1569886200</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="17">
         <v>2555555555</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="14">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>24</v>
       </c>
-      <c r="D8" s="15">
-        <v>2</v>
-      </c>
-      <c r="E8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16">
+      <c r="D8" s="16">
+        <v>2</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17">
         <v>1569886200</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="17">
         <v>2555555555</v>
       </c>
     </row>
@@ -2300,14 +2310,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="27" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="8" customFormat="1" ht="27" spans="1:3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2339,17 +2349,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="8" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2483,112 +2493,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="8"/>
-    <col min="2" max="2" width="21.25" style="10" customWidth="1"/>
-    <col min="3" max="4" width="17.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="10.75" style="8"/>
+    <col min="1" max="1" width="10.75" style="9"/>
+    <col min="2" max="2" width="21.25" style="11" customWidth="1"/>
+    <col min="3" max="4" width="17.875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="10.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="55.5" customHeight="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="8" customFormat="1" ht="55.5" customHeight="1" spans="1:5">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:5">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="3" s="10" customFormat="1" spans="1:5">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A4" s="9">
+    <row r="4" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:5">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:5">
-      <c r="A5" s="9">
+    <row r="5" s="10" customFormat="1" spans="1:5">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" spans="1:5">
-      <c r="A6" s="9">
+    <row r="6" s="10" customFormat="1" spans="1:5">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2602,37 +2612,37 @@
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="13"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="13"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="13"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="13"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="13"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="13"/>
+      <c r="B15" s="14"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="13"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="13"/>
+      <c r="B17" s="14"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="13"/>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="13"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="13"/>
+      <c r="B20" s="14"/>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1"/>
@@ -2703,17 +2713,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="8" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2861,62 +2871,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="10.75" style="8"/>
+    <col min="1" max="16384" width="10.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="8" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
         <v>30</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>40</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
         <v>25</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>30</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>10</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>25</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>3</v>
       </c>
     </row>
@@ -2938,10 +2948,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3003,10 +3013,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>41</v>
       </c>
     </row>

--- a/config_debug/fish_am_yutu_random_2.xlsx
+++ b/config_debug/fish_am_yutu_random_2.xlsx
@@ -251,10 +251,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -285,13 +285,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,29 +309,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,33 +323,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -379,31 +337,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -418,6 +352,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -426,9 +427,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,19 +461,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,55 +599,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,103 +641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,6 +670,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -681,6 +696,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,55 +744,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,14 +770,14 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,135 +789,135 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1559,8 +1559,8 @@
   <sheetPr/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19:J19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1993,11 +1993,11 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="6">
-        <v>1623167999</v>
-      </c>
-      <c r="J18" s="6">
-        <v>1623254399</v>
+      <c r="I18" s="5">
+        <v>1624924800</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1625500799</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
@@ -2021,11 +2021,11 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="5">
-        <v>1624924800</v>
-      </c>
-      <c r="J19" s="5">
-        <v>1625500799</v>
+      <c r="I19" s="6">
+        <v>1623167999</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1623254399</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish_am_yutu_random_2.xlsx
+++ b/config_debug/fish_am_yutu_random_2.xlsx
@@ -257,10 +257,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -292,12 +292,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,16 +340,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,7 +363,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,56 +379,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -419,6 +402,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -432,13 +439,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -467,37 +467,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,31 +629,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,109 +647,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,6 +700,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -730,15 +739,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -758,7 +758,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,154 +776,154 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1565,8 +1565,8 @@
   <sheetPr/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="$A20:$XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2053,11 +2053,11 @@
       <c r="F20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I20" s="5">
-        <v>1625529600</v>
-      </c>
-      <c r="J20" s="5">
-        <v>2572214400</v>
+      <c r="I20" s="6">
+        <v>1623167999</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1623254399</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish_am_yutu_random_2.xlsx
+++ b/config_debug/fish_am_yutu_random_2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -255,14 +260,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,23 +298,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,130 +309,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,194 +340,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -682,255 +364,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -949,7 +389,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -961,83 +401,39 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 4" xfId="3"/>
+    <cellStyle name="常规 4 2" xfId="4"/>
     <cellStyle name="常规 4 2 2" xfId="1"/>
-    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="50"/>
-    <cellStyle name="常规 4" xfId="51"/>
-    <cellStyle name="常规 4 2" xfId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1295,21 +691,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="67.5" spans="1:8">
+    <row r="1" spans="1:8" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1359,24 +755,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +779,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1392,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1400,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1409,23 +804,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1441,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1449,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1457,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1466,23 +860,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1490,7 +883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1498,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1506,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1515,23 +908,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1547,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1555,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1564,22 +956,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="28.125" style="1" customWidth="1"/>
@@ -1589,7 +980,7 @@
     <col min="10" max="10" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:6">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1641,7 +1032,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1661,7 +1052,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1681,7 +1072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1701,7 +1092,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1721,7 +1112,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1741,7 +1132,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1761,7 +1152,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:8">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1784,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:8">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1807,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:8">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1830,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:8">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1853,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:8">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1876,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1904,7 +1295,7 @@
         <v>1626105599</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1932,7 +1323,7 @@
         <v>1626105599</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1960,7 +1351,7 @@
         <v>1626105599</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1988,7 +1379,7 @@
         <v>1626105599</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2016,7 +1407,7 @@
         <v>1626105599</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2044,7 +1435,7 @@
         <v>1623254399</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2064,29 +1455,28 @@
         <v>67</v>
       </c>
       <c r="I20" s="7">
-        <v>1626739200</v>
+        <v>1941617584</v>
       </c>
       <c r="J20" s="7">
         <v>2572819200</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
     <col min="2" max="2" width="13.125" style="15" customWidth="1"/>
@@ -2099,7 +1489,7 @@
     <col min="9" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2125,7 +1515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -2149,7 +1539,7 @@
         <v>1570456800</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2173,7 +1563,7 @@
         <v>1570456800</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -2199,7 +1589,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -2223,7 +1613,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -2246,7 +1636,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -2269,7 +1659,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -2293,24 +1683,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="27" spans="1:3">
+    <row r="1" spans="1:3" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2321,7 +1710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2333,23 +1722,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="42" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2363,7 +1751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2377,7 +1765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2391,7 +1779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2405,7 +1793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2419,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2433,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2447,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2461,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2476,22 +1864,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="9"/>
     <col min="2" max="2" width="21.25" style="11" customWidth="1"/>
@@ -2500,7 +1887,7 @@
     <col min="6" max="16384" width="10.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="55.5" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -2517,7 +1904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2534,7 +1921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" spans="1:5">
+    <row r="3" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2551,7 +1938,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" s="10" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2568,7 +1955,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" spans="1:5">
+    <row r="5" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2585,7 +1972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1" spans="1:5">
+    <row r="6" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2602,118 +1989,117 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="14"/>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="14"/>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="14"/>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="14"/>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="14"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="42" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2727,7 +2113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2741,7 +2127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2755,7 +2141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2769,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2783,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2797,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2811,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2825,7 +2211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2839,7 +2225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2854,27 +2240,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="10.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2888,7 +2273,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2902,7 +2287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2916,7 +2301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2931,23 +2316,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2955,7 +2339,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2963,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2971,7 +2355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2979,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2987,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2996,23 +2380,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3020,7 +2403,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3028,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3036,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3045,7 +2428,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_debug/fish_am_yutu_random_2.xlsx
+++ b/config_debug/fish_am_yutu_random_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -260,8 +255,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,10 +298,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,13 +364,90 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,8 +472,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -364,13 +682,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -389,7 +949,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -401,39 +961,83 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 4" xfId="3"/>
-    <cellStyle name="常规 4 2" xfId="4"/>
     <cellStyle name="常规 4 2 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="货币" xfId="5" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="50"/>
+    <cellStyle name="常规 4" xfId="51"/>
+    <cellStyle name="常规 4 2" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -691,21 +1295,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="67.5" spans="1:8">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -731,7 +1335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -755,23 +1359,24 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="46.5" customHeight="1" spans="1:2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -779,7 +1384,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -787,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -795,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -804,22 +1409,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="46.5" customHeight="1" spans="1:2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -827,7 +1433,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -835,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -843,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -851,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -860,22 +1466,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="46.5" customHeight="1" spans="1:2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -883,7 +1490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -891,7 +1498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -899,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -908,22 +1515,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="46.5" customHeight="1" spans="1:2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -931,7 +1539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -939,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -947,7 +1555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -956,21 +1564,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="I14" sqref="I14:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="28.125" style="1" customWidth="1"/>
@@ -980,7 +1589,7 @@
     <col min="10" max="10" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +1621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="1" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1032,7 +1641,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="1" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1052,7 +1661,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1072,7 +1681,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="1" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1092,7 +1701,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1112,7 +1721,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="1" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1132,7 +1741,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="1" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1152,7 +1761,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="1" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1175,7 +1784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="1" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1198,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="1" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1221,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="1" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1244,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="1" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1267,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="1" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1289,13 +1898,13 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="J14" s="5">
-        <v>1626105599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1627315199</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1317,13 +1926,13 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="J15" s="5">
-        <v>1626105599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1627315199</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1345,13 +1954,13 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="J16" s="5">
-        <v>1626105599</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1627315199</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1373,13 +1982,13 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="J17" s="5">
-        <v>1626105599</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1627315199</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1401,13 +2010,13 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="J18" s="5">
-        <v>1626105599</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1627315199</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1435,7 +2044,7 @@
         <v>1623254399</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1455,28 +2064,29 @@
         <v>67</v>
       </c>
       <c r="I20" s="7">
-        <v>1941617584</v>
+        <v>1626134400</v>
       </c>
       <c r="J20" s="7">
         <v>2572819200</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
     <col min="2" max="2" width="13.125" style="15" customWidth="1"/>
@@ -1489,7 +2099,7 @@
     <col min="9" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="42" customHeight="1" spans="1:8">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1515,7 +2125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1539,7 +2149,7 @@
         <v>1570456800</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -1563,7 +2173,7 @@
         <v>1570456800</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1589,7 +2199,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -1613,7 +2223,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -1636,7 +2246,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -1659,7 +2269,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -1683,23 +2293,24 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" s="8" customFormat="1" ht="27" spans="1:3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1710,7 +2321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1722,22 +2333,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="8" customFormat="1" ht="42" customHeight="1" spans="1:4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +2363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1765,7 +2377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1779,7 +2391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1793,7 +2405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1807,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1821,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1835,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1849,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1864,21 +2476,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.75" style="9"/>
     <col min="2" max="2" width="21.25" style="11" customWidth="1"/>
@@ -1887,7 +2500,7 @@
     <col min="6" max="16384" width="10.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="8" customFormat="1" ht="55.5" customHeight="1" spans="1:5">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -1904,7 +2517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1921,7 +2534,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="10" customFormat="1" spans="1:5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1938,7 +2551,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="10" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1955,7 +2568,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" s="10" customFormat="1" spans="1:5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1972,7 +2585,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" s="10" customFormat="1" spans="1:5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1989,117 +2602,118 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2">
       <c r="B10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:2">
       <c r="B11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:2">
       <c r="B12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:2">
       <c r="B13" s="14"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:2">
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:2">
       <c r="B15" s="14"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:2">
       <c r="B16" s="14"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2">
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2">
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2">
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2">
       <c r="B37" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="8" customFormat="1" ht="42" customHeight="1" spans="1:4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2113,7 +2727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2127,7 +2741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2141,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2155,7 +2769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2169,7 +2783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2183,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2197,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2211,7 +2825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2225,7 +2839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2240,26 +2854,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="16384" width="10.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="8" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2273,7 +2888,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2287,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2301,7 +2916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2316,22 +2931,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="46.5" customHeight="1" spans="1:2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2339,7 +2955,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2347,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2355,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2363,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2371,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2380,22 +2996,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="46.5" customHeight="1" spans="1:2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2403,7 +3020,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2411,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2419,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2428,7 +3045,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_debug/fish_am_yutu_random_2.xlsx
+++ b/config_debug/fish_am_yutu_random_2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -255,14 +260,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,64 +297,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,90 +309,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,194 +340,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -682,255 +364,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -949,7 +389,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -961,83 +401,39 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 4" xfId="3"/>
+    <cellStyle name="常规 4 2" xfId="4"/>
     <cellStyle name="常规 4 2 2" xfId="1"/>
-    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="50"/>
-    <cellStyle name="常规 4" xfId="51"/>
-    <cellStyle name="常规 4 2" xfId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1295,21 +691,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="67.5" spans="1:8">
+    <row r="1" spans="1:8" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1359,24 +755,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +779,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1392,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1400,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1409,23 +804,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1441,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1449,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1457,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1466,23 +860,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1490,7 +883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1498,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1506,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1515,23 +908,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1547,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1555,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1564,22 +956,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:J18"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="28.125" style="1" customWidth="1"/>
@@ -1589,7 +980,7 @@
     <col min="10" max="10" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:6">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1641,7 +1032,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1661,7 +1052,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1681,7 +1072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1701,7 +1092,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1721,7 +1112,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1741,7 +1132,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1761,7 +1152,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:8">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1784,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:8">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1807,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:8">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1830,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:8">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1853,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:8">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1876,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1904,7 +1295,7 @@
         <v>1627315199</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1932,7 +1323,7 @@
         <v>1627315199</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1960,7 +1351,7 @@
         <v>1627315199</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1988,7 +1379,7 @@
         <v>1627315199</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2016,7 +1407,7 @@
         <v>1627315199</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2044,7 +1435,7 @@
         <v>1623254399</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2064,29 +1455,28 @@
         <v>67</v>
       </c>
       <c r="I20" s="7">
-        <v>1626134400</v>
+        <v>1941617584</v>
       </c>
       <c r="J20" s="7">
         <v>2572819200</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
     <col min="2" max="2" width="13.125" style="15" customWidth="1"/>
@@ -2099,7 +1489,7 @@
     <col min="9" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2125,7 +1515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -2149,7 +1539,7 @@
         <v>1570456800</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2173,7 +1563,7 @@
         <v>1570456800</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -2199,7 +1589,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -2223,7 +1613,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -2246,7 +1636,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -2269,7 +1659,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -2293,24 +1683,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="27" spans="1:3">
+    <row r="1" spans="1:3" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2321,7 +1710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2333,23 +1722,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="42" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2363,7 +1751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2377,7 +1765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2391,7 +1779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2405,7 +1793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2419,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2433,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2447,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2461,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2476,22 +1864,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="9"/>
     <col min="2" max="2" width="21.25" style="11" customWidth="1"/>
@@ -2500,7 +1887,7 @@
     <col min="6" max="16384" width="10.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="55.5" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -2517,7 +1904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2534,7 +1921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" spans="1:5">
+    <row r="3" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2551,7 +1938,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" s="10" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2568,7 +1955,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" spans="1:5">
+    <row r="5" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2585,7 +1972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1" spans="1:5">
+    <row r="6" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2602,118 +1989,117 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="14"/>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="14"/>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="14"/>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="14"/>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="14"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="42" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2727,7 +2113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2741,7 +2127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2755,7 +2141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2769,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2783,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2797,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2811,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2825,7 +2211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2839,7 +2225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2854,27 +2240,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="10.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2888,7 +2273,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2902,7 +2287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2916,7 +2301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2931,23 +2316,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2955,7 +2339,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2963,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2971,7 +2355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2979,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2987,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2996,23 +2380,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3020,7 +2403,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3028,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3036,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3045,7 +2428,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_debug/fish_am_yutu_random_2.xlsx
+++ b/config_debug/fish_am_yutu_random_2.xlsx
@@ -257,10 +257,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -299,6 +299,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -309,22 +316,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,14 +338,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -363,8 +346,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,13 +359,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,8 +379,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,8 +417,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,7 +427,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,6 +439,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -474,187 +474,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,15 +679,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,6 +717,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -733,11 +733,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,15 +755,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -780,17 +769,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,138 +799,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1576,7 +1576,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:J20"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2064,7 +2064,7 @@
         <v>67</v>
       </c>
       <c r="I20" s="7">
-        <v>1626134400</v>
+        <v>1626739200</v>
       </c>
       <c r="J20" s="7">
         <v>2572819200</v>

--- a/config_debug/fish_am_yutu_random_2.xlsx
+++ b/config_debug/fish_am_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1289,10 +1289,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="J14" s="5">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1317,10 +1317,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="J15" s="5">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1345,10 +1345,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="J16" s="5">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1373,10 +1373,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="J17" s="5">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_debug/fish_am_yutu_random_2.xlsx
+++ b/config_debug/fish_am_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -273,6 +273,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -280,6 +281,7 @@
       <sz val="11"/>
       <color theme="4"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -287,12 +289,14 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -300,17 +304,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -967,7 +974,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1289,10 +1296,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="J14" s="5">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1317,10 +1324,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="J15" s="5">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1345,10 +1352,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="J16" s="5">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1373,10 +1380,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="J17" s="5">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1401,10 +1408,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1627344000</v>
+        <v>1628553600</v>
       </c>
       <c r="J18" s="5">
-        <v>1627919999</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_debug/fish_am_yutu_random_2.xlsx
+++ b/config_debug/fish_am_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -974,7 +974,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1296,10 +1296,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="J14" s="5">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1324,10 +1324,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="J15" s="5">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1352,10 +1352,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="J16" s="5">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1380,10 +1380,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="J17" s="5">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1408,10 +1408,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="J18" s="5">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_debug/fish_am_yutu_random_2.xlsx
+++ b/config_debug/fish_am_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -974,7 +974,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I14" sqref="I14:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1296,10 +1296,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="J14" s="5">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1324,10 +1324,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="J15" s="5">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1352,10 +1352,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="J16" s="5">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1380,10 +1380,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="J17" s="5">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1408,10 +1408,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="J18" s="5">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_debug/fish_am_yutu_random_2.xlsx
+++ b/config_debug/fish_am_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1296,10 +1296,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J14" s="5">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1324,10 +1324,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J15" s="5">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1352,10 +1352,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J16" s="5">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1380,10 +1380,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J17" s="5">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1408,10 +1408,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J18" s="5">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_debug/fish_am_yutu_random_2.xlsx
+++ b/config_debug/fish_am_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1296,10 +1296,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J14" s="5">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1324,10 +1324,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J15" s="5">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1352,10 +1352,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J16" s="5">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1380,10 +1380,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J17" s="5">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1408,10 +1408,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J18" s="5">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_debug/fish_am_yutu_random_2.xlsx
+++ b/config_debug/fish_am_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1296,10 +1296,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J14" s="5">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1324,10 +1324,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J15" s="5">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1352,10 +1352,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J16" s="5">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1380,10 +1380,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J17" s="5">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1408,10 +1408,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J18" s="5">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
